--- a/storage/app/excelBlanco/DPT.xlsx
+++ b/storage/app/excelBlanco/DPT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\RES\storage\app\excelBlanco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D289B17-74A0-47FD-B6C4-2F668CB88959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561C9941-58D9-41B0-8FFC-BC969AADEF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1845,7 +1845,7 @@
   <dimension ref="A1:AV185"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:G19"/>
+      <selection activeCell="G2" sqref="G2:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
